--- a/tp2/Book1.xlsx
+++ b/tp2/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="progDynamique" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="75">
   <si>
     <t>temps</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>moy</t>
   </si>
 </sst>
 </file>
@@ -4168,10 +4171,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C701"/>
+  <dimension ref="A1:H701"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4179,7 +4182,7 @@
     <col min="1" max="1" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4189,3505 +4192,7785 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>6.4040811061859104</v>
+      </c>
+      <c r="C2">
+        <v>825468</v>
+      </c>
+      <c r="E2">
+        <f xml:space="preserve"> AVERAGE(B2:B101)*1000</f>
+        <v>6856.596691608428</v>
+      </c>
+      <c r="F2">
+        <f xml:space="preserve"> AVERAGE(C2:C101)</f>
+        <v>806549.07</v>
+      </c>
+      <c r="H2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>6.0531654357910103</v>
+      </c>
+      <c r="C3">
+        <v>728748</v>
+      </c>
+      <c r="E3">
+        <f xml:space="preserve"> AVERAGE(B102:B201)*1000</f>
+        <v>132.66009807586633</v>
+      </c>
+      <c r="F3">
+        <f xml:space="preserve"> AVERAGE(C102:C201)</f>
+        <v>68669.39</v>
+      </c>
+      <c r="H3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>6.0877947807312003</v>
+      </c>
+      <c r="C4">
+        <v>687276</v>
+      </c>
+      <c r="E4">
+        <f xml:space="preserve"> AVERAGE(B202:B301)*1000</f>
+        <v>7.6265144348144522</v>
+      </c>
+      <c r="F4">
+        <f xml:space="preserve"> AVERAGE(C202:C301)</f>
+        <v>4818.54</v>
+      </c>
+      <c r="H4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>6.0260291099548304</v>
+      </c>
+      <c r="C5">
+        <v>586181</v>
+      </c>
+      <c r="E5">
+        <f xml:space="preserve"> AVERAGE(B302:B401)*1000</f>
+        <v>0.61614751815795776</v>
+      </c>
+      <c r="F5">
+        <f xml:space="preserve"> AVERAGE(C302:C401)</f>
+        <v>308.10000000000002</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>6.0170307159423801</v>
+      </c>
+      <c r="C6">
+        <v>939321</v>
+      </c>
+      <c r="E6">
+        <f xml:space="preserve"> AVERAGE(B402:B501)*1000</f>
+        <v>1876.1242985725376</v>
+      </c>
+      <c r="F6">
+        <f xml:space="preserve"> AVERAGE(C402:C501)</f>
+        <v>414086.48</v>
+      </c>
+      <c r="H6">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>7.31237745285034</v>
+      </c>
+      <c r="C7">
+        <v>1395364</v>
+      </c>
+      <c r="E7">
+        <f xml:space="preserve"> AVERAGE(B502:B601)*1000</f>
+        <v>46.926593780517571</v>
+      </c>
+      <c r="F7">
+        <f xml:space="preserve"> AVERAGE(C502:C601)</f>
+        <v>31070.94</v>
+      </c>
+      <c r="H7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>7.1006135940551696</v>
+      </c>
+      <c r="C8">
+        <v>812146</v>
+      </c>
+      <c r="E8">
+        <f xml:space="preserve"> AVERAGE(B602:B701)*1000</f>
+        <v>3.5495209693908678</v>
+      </c>
+      <c r="F8">
+        <f xml:space="preserve"> AVERAGE(C602:C701)</f>
+        <v>1942.18</v>
+      </c>
+      <c r="H8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>6.9846591949462802</v>
+      </c>
+      <c r="C9">
+        <v>293938</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>7.2346658706665004</v>
+      </c>
+      <c r="C10">
+        <v>488931</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>7.1782784461975098</v>
+      </c>
+      <c r="C11">
+        <v>811125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>6.8384258747100803</v>
+      </c>
+      <c r="C12">
+        <v>499448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>6.4192910194396902</v>
+      </c>
+      <c r="C13">
+        <v>785868</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>7.2473976612091002</v>
+      </c>
+      <c r="C14">
+        <v>367818</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>7.9410130977630597</v>
+      </c>
+      <c r="C15">
+        <v>741274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>7.7833130359649596</v>
+      </c>
+      <c r="C16">
+        <v>772600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>7.5088117122650102</v>
+      </c>
+      <c r="C17">
+        <v>1015047</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>7.5911302566528303</v>
+      </c>
+      <c r="C18">
+        <v>661367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>6.2402138710021902</v>
+      </c>
+      <c r="C19">
+        <v>594240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>6.3785860538482604</v>
+      </c>
+      <c r="C20">
+        <v>579486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>7.46681785583496</v>
+      </c>
+      <c r="C21">
+        <v>530662</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>6.7153933048248202</v>
+      </c>
+      <c r="C22">
+        <v>320620</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>6.3767192363738996</v>
+      </c>
+      <c r="C23">
+        <v>561166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>7.0483903884887598</v>
+      </c>
+      <c r="C24">
+        <v>1324457</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>6.8100326061248699</v>
+      </c>
+      <c r="C25">
+        <v>335109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>6.8249740600585902</v>
+      </c>
+      <c r="C26">
+        <v>784502</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>6.7850313186645499</v>
+      </c>
+      <c r="C27">
+        <v>921492</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>6.8644902706146196</v>
+      </c>
+      <c r="C28">
+        <v>514847</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>6.9138989448547301</v>
+      </c>
+      <c r="C29">
+        <v>527965</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>6.7985272407531703</v>
+      </c>
+      <c r="C30">
+        <v>1002732</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>6.8523452281951904</v>
+      </c>
+      <c r="C31">
+        <v>823450</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>6.8012959957122803</v>
+      </c>
+      <c r="C32">
+        <v>988404</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>6.8822681903839102</v>
+      </c>
+      <c r="C33">
+        <v>783762</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>6.8048231601714999</v>
+      </c>
+      <c r="C34">
+        <v>1289254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>6.8212707042694003</v>
+      </c>
+      <c r="C35">
+        <v>833214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>6.7817456722259504</v>
+      </c>
+      <c r="C36">
+        <v>883060</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>6.8277769088745099</v>
+      </c>
+      <c r="C37">
+        <v>260610</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>6.8305187225341797</v>
+      </c>
+      <c r="C38">
+        <v>904997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>6.8276855945587096</v>
+      </c>
+      <c r="C39">
+        <v>1577544</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>6.8248918056488002</v>
+      </c>
+      <c r="C40">
+        <v>1041394</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>6.82086110115051</v>
+      </c>
+      <c r="C41">
+        <v>780081</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>7.1391911506652797</v>
+      </c>
+      <c r="C42">
+        <v>1048056</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>6.9249188899993896</v>
+      </c>
+      <c r="C43">
+        <v>795360</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>6.8099923133850098</v>
+      </c>
+      <c r="C44">
+        <v>424667</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>6.8545732498168901</v>
+      </c>
+      <c r="C45">
+        <v>756238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>6.8284792900085396</v>
+      </c>
+      <c r="C46">
+        <v>507507</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>7.1113700866699201</v>
+      </c>
+      <c r="C47">
+        <v>566866</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>6.8396527767181396</v>
+      </c>
+      <c r="C48">
+        <v>545690</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>6.9076819419860804</v>
+      </c>
+      <c r="C49">
+        <v>541645</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>6.8296763896942103</v>
+      </c>
+      <c r="C50">
+        <v>596587</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>6.8888347148895201</v>
+      </c>
+      <c r="C51">
+        <v>926361</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>6.8440010547637904</v>
+      </c>
+      <c r="C52">
+        <v>911449</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>6.8638322353363002</v>
+      </c>
+      <c r="C53">
+        <v>737793</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>6.8763909339904696</v>
+      </c>
+      <c r="C54">
+        <v>918350</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>6.9421968460082999</v>
+      </c>
+      <c r="C55">
+        <v>403682</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>6.9141089916229204</v>
+      </c>
+      <c r="C56">
+        <v>1060369</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>6.8958618640899596</v>
+      </c>
+      <c r="C57">
+        <v>893223</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>6.8855278491973797</v>
+      </c>
+      <c r="C58">
+        <v>792348</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>7.4803192615508998</v>
+      </c>
+      <c r="C59">
+        <v>787054</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>6.8669025897979701</v>
+      </c>
+      <c r="C60">
+        <v>477757</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>6.9379553794860804</v>
+      </c>
+      <c r="C61">
+        <v>730378</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>6.7942192554473797</v>
+      </c>
+      <c r="C62">
+        <v>984715</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>6.7613651752471897</v>
+      </c>
+      <c r="C63">
+        <v>835259</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>6.7928931713104204</v>
+      </c>
+      <c r="C64">
+        <v>329479</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>7.0624394416809002</v>
+      </c>
+      <c r="C65">
+        <v>787443</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>6.9127676486968896</v>
+      </c>
+      <c r="C66">
+        <v>1624843</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>6.8355851173400799</v>
+      </c>
+      <c r="C67">
+        <v>619070</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>6.8386878967285103</v>
+      </c>
+      <c r="C68">
+        <v>351716</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>6.8917462825775102</v>
+      </c>
+      <c r="C69">
+        <v>1181242</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>6.8454592227935702</v>
+      </c>
+      <c r="C70">
+        <v>506438</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>6.8507950305938703</v>
+      </c>
+      <c r="C71">
+        <v>878954</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>6.9010059833526602</v>
+      </c>
+      <c r="C72">
+        <v>550632</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>6.9944479465484601</v>
+      </c>
+      <c r="C73">
+        <v>1137760</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>7.12623715400695</v>
+      </c>
+      <c r="C74">
+        <v>1005920</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>6.3248205184936497</v>
+      </c>
+      <c r="C75">
+        <v>722623</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>6.96655249595642</v>
+      </c>
+      <c r="C76">
+        <v>696816</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>6.8190288543701101</v>
+      </c>
+      <c r="C77">
+        <v>906112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>6.8432443141937203</v>
+      </c>
+      <c r="C78">
+        <v>1186900</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>6.8881964683532697</v>
+      </c>
+      <c r="C79">
+        <v>1279381</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>6.7563049793243399</v>
+      </c>
+      <c r="C80">
+        <v>650820</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>6.8567297458648602</v>
+      </c>
+      <c r="C81">
+        <v>1494158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>6.7982428073883003</v>
+      </c>
+      <c r="C82">
+        <v>1247809</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>6.8385429382324201</v>
+      </c>
+      <c r="C83">
+        <v>1065489</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>6.8071215152740399</v>
+      </c>
+      <c r="C84">
+        <v>912260</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>6.5013663768768302</v>
+      </c>
+      <c r="C85">
+        <v>1456186</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>6.2055058479309002</v>
+      </c>
+      <c r="C86">
+        <v>750102</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>6.60628008842468</v>
+      </c>
+      <c r="C87">
+        <v>625115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>6.8458943367004297</v>
+      </c>
+      <c r="C88">
+        <v>853976</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>6.8078529834747297</v>
+      </c>
+      <c r="C89">
+        <v>192876</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>6.8543419837951598</v>
+      </c>
+      <c r="C90">
+        <v>815490</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>6.9198527336120597</v>
+      </c>
+      <c r="C91">
+        <v>806185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>6.8785343170165998</v>
+      </c>
+      <c r="C92">
+        <v>657574</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>6.8597154617309499</v>
+      </c>
+      <c r="C93">
+        <v>898070</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>6.9243791103363002</v>
+      </c>
+      <c r="C94">
+        <v>744853</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>6.837646484375</v>
+      </c>
+      <c r="C95">
+        <v>1404548</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>6.8819258213043204</v>
+      </c>
+      <c r="C96">
+        <v>1267451</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>6.8819611072540203</v>
+      </c>
+      <c r="C97">
+        <v>1302205</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>6.9136116504669101</v>
+      </c>
+      <c r="C98">
+        <v>706640</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>6.8347685337066597</v>
+      </c>
+      <c r="C99">
+        <v>752678</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>6.8757297992706299</v>
+      </c>
+      <c r="C100">
+        <v>889556</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>6.8557641506194997</v>
+      </c>
+      <c r="C101">
+        <v>579215</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>0.13085293769836401</v>
+      </c>
+      <c r="C102">
+        <v>39706</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>0.132903337478637</v>
+      </c>
+      <c r="C103">
+        <v>64637</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>0.13147830963134699</v>
+      </c>
+      <c r="C104">
+        <v>60987</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>0.13793516159057601</v>
+      </c>
+      <c r="C105">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>0.13285517692565901</v>
+      </c>
+      <c r="C106">
+        <v>34101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>0.13140010833740201</v>
+      </c>
+      <c r="C107">
+        <v>48204</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>0.13336777687072701</v>
+      </c>
+      <c r="C108">
+        <v>69161</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>0.13385653495788499</v>
+      </c>
+      <c r="C109">
+        <v>60378</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>0.13987207412719699</v>
+      </c>
+      <c r="C110">
+        <v>53572</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <v>0.130851030349731</v>
+      </c>
+      <c r="C111">
+        <v>129886</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <v>0.138367414474487</v>
+      </c>
+      <c r="C112">
+        <v>20465</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>0.14037442207336401</v>
+      </c>
+      <c r="C113">
+        <v>56753</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>0.13134956359863201</v>
+      </c>
+      <c r="C114">
+        <v>17084</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <v>0.13335514068603499</v>
+      </c>
+      <c r="C115">
+        <v>49537</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>0.13289761543273901</v>
+      </c>
+      <c r="C116">
+        <v>88529</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>0.131927490234375</v>
+      </c>
+      <c r="C117">
+        <v>103230</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <v>0.12984490394592199</v>
+      </c>
+      <c r="C118">
+        <v>60790</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>0.13235092163085899</v>
+      </c>
+      <c r="C119">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>0.132351875305175</v>
+      </c>
+      <c r="C120">
+        <v>66398</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>0.13336133956909099</v>
+      </c>
+      <c r="C121">
+        <v>71831</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>0.13134956359863201</v>
+      </c>
+      <c r="C122">
+        <v>79753</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>0.13134932518005299</v>
+      </c>
+      <c r="C123">
+        <v>114536</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>0.13385605812072701</v>
+      </c>
+      <c r="C124">
+        <v>49648</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>0.13034701347350999</v>
+      </c>
+      <c r="C125">
+        <v>18915</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>0.13435864448547299</v>
+      </c>
+      <c r="C126">
+        <v>57954</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>0.13281917572021401</v>
+      </c>
+      <c r="C127">
+        <v>132680</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>0.13087248802185</v>
+      </c>
+      <c r="C128">
+        <v>68806</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>0.13285374641418399</v>
+      </c>
+      <c r="C129">
+        <v>54122</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>0.13239741325378401</v>
+      </c>
+      <c r="C130">
+        <v>36194</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>0.130356550216674</v>
+      </c>
+      <c r="C131">
+        <v>62240</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>0.13135099411010701</v>
+      </c>
+      <c r="C132">
+        <v>60813</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>0.130848407745361</v>
+      </c>
+      <c r="C133">
+        <v>52764</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>0.13435816764831501</v>
+      </c>
+      <c r="C134">
+        <v>83607</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>0.13385605812072701</v>
+      </c>
+      <c r="C135">
+        <v>83932</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>0.13285374641418399</v>
+      </c>
+      <c r="C136">
+        <v>24367</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>0.134858608245849</v>
+      </c>
+      <c r="C137">
+        <v>50303</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>0.13134956359863201</v>
+      </c>
+      <c r="C138">
+        <v>80169</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B139">
+        <v>0.13185095787048301</v>
+      </c>
+      <c r="C139">
+        <v>117431</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B140">
+        <v>0.13134264945983801</v>
+      </c>
+      <c r="C140">
+        <v>17681</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B141">
+        <v>0.131886482238769</v>
+      </c>
+      <c r="C141">
+        <v>73992</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B142">
+        <v>0.132853507995605</v>
+      </c>
+      <c r="C142">
+        <v>79066</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B143">
+        <v>0.13135099411010701</v>
+      </c>
+      <c r="C143">
+        <v>90394</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B144">
+        <v>0.13134932518005299</v>
+      </c>
+      <c r="C144">
+        <v>58060</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B145">
+        <v>0.131349802017211</v>
+      </c>
+      <c r="C145">
+        <v>37317</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B146">
+        <v>0.131349802017211</v>
+      </c>
+      <c r="C146">
+        <v>128445</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B147">
+        <v>0.13338708877563399</v>
+      </c>
+      <c r="C147">
+        <v>113053</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B148">
+        <v>0.13283300399780201</v>
+      </c>
+      <c r="C148">
+        <v>64980</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B149">
+        <v>0.130847692489624</v>
+      </c>
+      <c r="C149">
+        <v>59402</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B150">
+        <v>0.130417585372924</v>
+      </c>
+      <c r="C150">
+        <v>183124</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B151">
+        <v>0.13084793090820299</v>
+      </c>
+      <c r="C151">
+        <v>85028</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B152">
+        <v>0.13185071945190399</v>
+      </c>
+      <c r="C152">
+        <v>61703</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B153">
+        <v>0.130841255187988</v>
+      </c>
+      <c r="C153">
+        <v>77212</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B154">
+        <v>0.129846096038818</v>
+      </c>
+      <c r="C154">
+        <v>69786</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B155">
+        <v>0.14936566352844199</v>
+      </c>
+      <c r="C155">
+        <v>11821</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B156">
+        <v>0.13489580154418901</v>
+      </c>
+      <c r="C156">
+        <v>48907</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B157">
+        <v>0.134858608245849</v>
+      </c>
+      <c r="C157">
+        <v>34856</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B158">
+        <v>0.13636255264282199</v>
+      </c>
+      <c r="C158">
+        <v>53164</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B159">
+        <v>0.13995957374572701</v>
+      </c>
+      <c r="C159">
+        <v>86525</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B160">
+        <v>0.131428718566894</v>
+      </c>
+      <c r="C160">
+        <v>62927</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B161">
+        <v>0.13244175910949699</v>
+      </c>
+      <c r="C161">
+        <v>85827</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B162">
+        <v>0.131941318511962</v>
+      </c>
+      <c r="C162">
+        <v>81262</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B163">
+        <v>0.134328603744506</v>
+      </c>
+      <c r="C163">
+        <v>110838</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B164">
+        <v>0.132856130599975</v>
+      </c>
+      <c r="C164">
+        <v>104296</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B165">
+        <v>0.131349802017211</v>
+      </c>
+      <c r="C165">
+        <v>110186</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B166">
+        <v>0.12934446334838801</v>
+      </c>
+      <c r="C166">
+        <v>85831</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B167">
+        <v>0.134357690811157</v>
+      </c>
+      <c r="C167">
+        <v>58339</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B168">
+        <v>0.13434886932373</v>
+      </c>
+      <c r="C168">
+        <v>124504</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B169">
+        <v>0.13298130035400299</v>
+      </c>
+      <c r="C169">
+        <v>37520</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B170">
+        <v>0.13047695159912101</v>
+      </c>
+      <c r="C170">
+        <v>60372</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B171">
+        <v>0.13135075569152799</v>
+      </c>
+      <c r="C171">
+        <v>63849</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B172">
+        <v>0.13034582138061501</v>
+      </c>
+      <c r="C172">
+        <v>72042</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B173">
+        <v>0.13132381439208901</v>
+      </c>
+      <c r="C173">
+        <v>98487</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B174">
+        <v>0.129414081573486</v>
+      </c>
+      <c r="C174">
+        <v>54608</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B175">
+        <v>0.13483524322509699</v>
+      </c>
+      <c r="C175">
+        <v>44921</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B176">
+        <v>0.12982177734375</v>
+      </c>
+      <c r="C176">
+        <v>82448</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B177">
+        <v>0.13437414169311501</v>
+      </c>
+      <c r="C177">
+        <v>64466</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B178">
+        <v>0.13236188888549799</v>
+      </c>
+      <c r="C178">
+        <v>81276</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B179">
+        <v>0.13102555274963301</v>
+      </c>
+      <c r="C179">
+        <v>65308</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B180">
+        <v>0.13285660743713301</v>
+      </c>
+      <c r="C180">
+        <v>28007</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B181">
+        <v>0.13138055801391599</v>
+      </c>
+      <c r="C181">
+        <v>76088</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B182">
+        <v>0.130348920822143</v>
+      </c>
+      <c r="C182">
+        <v>54642</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B183">
+        <v>0.13185095787048301</v>
+      </c>
+      <c r="C183">
+        <v>56805</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B184">
+        <v>0.12931656837463301</v>
+      </c>
+      <c r="C184">
+        <v>71941</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B185">
+        <v>0.13285398483276301</v>
+      </c>
+      <c r="C185">
+        <v>86962</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B186">
+        <v>0.13235235214233301</v>
+      </c>
+      <c r="C186">
+        <v>57624</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B187">
+        <v>0.131892204284667</v>
+      </c>
+      <c r="C187">
+        <v>35623</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B188">
+        <v>0.131356000900268</v>
+      </c>
+      <c r="C188">
+        <v>31999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B189">
+        <v>0.129369497299194</v>
+      </c>
+      <c r="C189">
+        <v>100228</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B190">
+        <v>0.13038468360900801</v>
+      </c>
+      <c r="C190">
+        <v>79720</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B191">
+        <v>0.13390803337097101</v>
+      </c>
+      <c r="C191">
+        <v>93121</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B192">
+        <v>0.12884330749511699</v>
+      </c>
+      <c r="C192">
+        <v>34684</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B193">
+        <v>0.13293266296386699</v>
+      </c>
+      <c r="C193">
+        <v>109181</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B194">
+        <v>0.13034725189208901</v>
+      </c>
+      <c r="C194">
+        <v>95728</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B195">
+        <v>0.13391065597534099</v>
+      </c>
+      <c r="C195">
+        <v>36611</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B196">
+        <v>0.13284969329833901</v>
+      </c>
+      <c r="C196">
+        <v>103340</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B197">
+        <v>0.13184547424316401</v>
+      </c>
+      <c r="C197">
+        <v>87141</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B198">
+        <v>0.131392002105712</v>
+      </c>
+      <c r="C198">
+        <v>77391</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B199">
+        <v>0.133354902267456</v>
+      </c>
+      <c r="C199">
+        <v>34963</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B200">
+        <v>0.135358572006225</v>
+      </c>
+      <c r="C200">
+        <v>88094</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B201">
+        <v>0.13536047935485801</v>
+      </c>
+      <c r="C201">
+        <v>29480</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B202">
+        <v>7.0183277130126901E-3</v>
+      </c>
+      <c r="C202">
+        <v>5959</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B203">
+        <v>9.5210075378417899E-3</v>
+      </c>
+      <c r="C203">
+        <v>6187</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B204">
+        <v>8.0225467681884696E-3</v>
+      </c>
+      <c r="C204">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B205">
+        <v>8.0206394195556606E-3</v>
+      </c>
+      <c r="C205">
+        <v>8025</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B206">
+        <v>8.5227489471435495E-3</v>
+      </c>
+      <c r="C206">
+        <v>6517</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B207">
+        <v>9.0241432189941406E-3</v>
+      </c>
+      <c r="C207">
+        <v>5603</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B208">
+        <v>7.5206756591796797E-3</v>
+      </c>
+      <c r="C208">
+        <v>7238</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B209">
+        <v>6.5169334411620998E-3</v>
+      </c>
+      <c r="C209">
+        <v>7714</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B210">
+        <v>7.0185661315917899E-3</v>
+      </c>
+      <c r="C210">
+        <v>9546</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B211">
+        <v>8.0211162567138602E-3</v>
+      </c>
+      <c r="C211">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B212">
+        <v>9.5262527465820295E-3</v>
+      </c>
+      <c r="C212">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B213">
+        <v>8.5229873657226493E-3</v>
+      </c>
+      <c r="C213">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B214">
+        <v>6.5171718597412101E-3</v>
+      </c>
+      <c r="C214">
+        <v>4787</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B215">
+        <v>7.0185661315917899E-3</v>
+      </c>
+      <c r="C215">
+        <v>4776</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B216">
+        <v>7.0102214813232396E-3</v>
+      </c>
+      <c r="C216">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B217">
+        <v>1.00269317626953E-2</v>
+      </c>
+      <c r="C217">
+        <v>8576</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B218">
+        <v>8.5225105285644497E-3</v>
+      </c>
+      <c r="C218">
+        <v>4741</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B219">
+        <v>8.5229873657226493E-3</v>
+      </c>
+      <c r="C219">
+        <v>8389</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B220">
+        <v>6.5362453460693299E-3</v>
+      </c>
+      <c r="C220">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B221">
+        <v>7.0185661315917899E-3</v>
+      </c>
+      <c r="C221">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B222">
+        <v>8.0208778381347604E-3</v>
+      </c>
+      <c r="C222">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B223">
+        <v>8.0099105834960903E-3</v>
+      </c>
+      <c r="C223">
+        <v>6426</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B224">
+        <v>9.0236663818359306E-3</v>
+      </c>
+      <c r="C224">
+        <v>7170</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B225">
+        <v>8.5630416870117101E-3</v>
+      </c>
+      <c r="C225">
+        <v>4719</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B226">
+        <v>8.02206993103027E-3</v>
+      </c>
+      <c r="C226">
+        <v>5683</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B227">
+        <v>6.0162544250488203E-3</v>
+      </c>
+      <c r="C227">
+        <v>7211</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B228">
+        <v>7.5197219848632804E-3</v>
+      </c>
+      <c r="C228">
+        <v>5305</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B229">
+        <v>6.5181255340576102E-3</v>
+      </c>
+      <c r="C229">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B230">
+        <v>8.5227489471435495E-3</v>
+      </c>
+      <c r="C230">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B231">
+        <v>9.0358257293701102E-3</v>
+      </c>
+      <c r="C231">
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B232">
+        <v>6.5178871154785104E-3</v>
+      </c>
+      <c r="C232">
+        <v>8094</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B233">
+        <v>6.5181255340576102E-3</v>
+      </c>
+      <c r="C233">
+        <v>5193</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B234">
+        <v>6.5100193023681597E-3</v>
+      </c>
+      <c r="C234">
+        <v>5514</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B235">
+        <v>9.0239048004150304E-3</v>
+      </c>
+      <c r="C235">
+        <v>4685</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B236">
+        <v>8.0215930938720703E-3</v>
+      </c>
+      <c r="C236">
+        <v>4584</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B237">
+        <v>6.5093040466308498E-3</v>
+      </c>
+      <c r="C237">
+        <v>6314</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B238">
+        <v>6.5174102783203099E-3</v>
+      </c>
+      <c r="C238">
+        <v>9089</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B239">
+        <v>7.5142383575439401E-3</v>
+      </c>
+      <c r="C239">
+        <v>6767</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B240">
+        <v>8.5227489471435495E-3</v>
+      </c>
+      <c r="C240">
+        <v>4919</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B241">
+        <v>7.01904296875E-3</v>
+      </c>
+      <c r="C241">
+        <v>4613</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B242">
+        <v>6.5174102783203099E-3</v>
+      </c>
+      <c r="C242">
+        <v>4987</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B243">
+        <v>7.0171356201171797E-3</v>
+      </c>
+      <c r="C243">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B244">
+        <v>7.5199604034423802E-3</v>
+      </c>
+      <c r="C244">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B245">
+        <v>9.0732574462890608E-3</v>
+      </c>
+      <c r="C245">
+        <v>9282</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B246">
+        <v>7.0185661315917899E-3</v>
+      </c>
+      <c r="C246">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B247">
+        <v>6.5171718597412101E-3</v>
+      </c>
+      <c r="C247">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B248">
+        <v>6.5174102783203099E-3</v>
+      </c>
+      <c r="C248">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B249">
+        <v>8.5122585296630807E-3</v>
+      </c>
+      <c r="C249">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B250">
+        <v>9.0239048004150304E-3</v>
+      </c>
+      <c r="C250">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B251">
+        <v>7.5287818908691398E-3</v>
+      </c>
+      <c r="C251">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B252">
+        <v>6.5171718597412101E-3</v>
+      </c>
+      <c r="C252">
+        <v>5225</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B253">
+        <v>6.5176486968994097E-3</v>
+      </c>
+      <c r="C253">
+        <v>3970</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B254">
+        <v>8.0130100250244106E-3</v>
+      </c>
+      <c r="C254">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B255">
+        <v>9.5255374908447196E-3</v>
+      </c>
+      <c r="C255">
+        <v>8038</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B256">
+        <v>7.5213909149169896E-3</v>
+      </c>
+      <c r="C256">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B257">
+        <v>6.0160160064697196E-3</v>
+      </c>
+      <c r="C257">
+        <v>5830</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B258">
+        <v>7.5199604034423802E-3</v>
+      </c>
+      <c r="C258">
+        <v>7869</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B259">
+        <v>8.0211162567138602E-3</v>
+      </c>
+      <c r="C259">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B260">
+        <v>9.5255374908447196E-3</v>
+      </c>
+      <c r="C260">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B261">
+        <v>7.5204372406005799E-3</v>
+      </c>
+      <c r="C261">
+        <v>7821</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B262">
+        <v>6.5176486968994097E-3</v>
+      </c>
+      <c r="C262">
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B263">
+        <v>7.0188045501708898E-3</v>
+      </c>
+      <c r="C263">
+        <v>5090</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B264">
+        <v>8.5227489471435495E-3</v>
+      </c>
+      <c r="C264">
+        <v>4779</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B265">
+        <v>8.5227489471435495E-3</v>
+      </c>
+      <c r="C265">
+        <v>4655</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B266">
+        <v>7.5349807739257804E-3</v>
+      </c>
+      <c r="C266">
+        <v>5012</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B267">
+        <v>6.5169334411620998E-3</v>
+      </c>
+      <c r="C267">
+        <v>6520</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B268">
+        <v>6.5171718597412101E-3</v>
+      </c>
+      <c r="C268">
+        <v>8002</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B269">
+        <v>9.0322494506835903E-3</v>
+      </c>
+      <c r="C269">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B270">
+        <v>8.0213546752929601E-3</v>
+      </c>
+      <c r="C270">
+        <v>7405</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B271">
+        <v>6.5193176269531198E-3</v>
+      </c>
+      <c r="C271">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B272">
+        <v>6.0160160064697196E-3</v>
+      </c>
+      <c r="C272">
+        <v>8555</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B273">
+        <v>7.0152282714843698E-3</v>
+      </c>
+      <c r="C273">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B274">
+        <v>8.5227489471435495E-3</v>
+      </c>
+      <c r="C274">
+        <v>5681</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B275">
+        <v>8.5227489471435495E-3</v>
+      </c>
+      <c r="C275">
+        <v>4411</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B276">
+        <v>6.0160160064697196E-3</v>
+      </c>
+      <c r="C276">
+        <v>4076</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B277">
+        <v>6.01553916931152E-3</v>
+      </c>
+      <c r="C277">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B278">
+        <v>6.5174102783203099E-3</v>
+      </c>
+      <c r="C278">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B279">
+        <v>9.0241432189941406E-3</v>
+      </c>
+      <c r="C279">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B280">
+        <v>9.0568065643310495E-3</v>
+      </c>
+      <c r="C280">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B281">
+        <v>7.5240135192870998E-3</v>
+      </c>
+      <c r="C281">
+        <v>5149</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B282">
+        <v>6.5176486968994097E-3</v>
+      </c>
+      <c r="C282">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B283">
+        <v>6.5174102783203099E-3</v>
+      </c>
+      <c r="C283">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B284">
+        <v>8.0213546752929601E-3</v>
+      </c>
+      <c r="C284">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B285">
+        <v>8.5229873657226493E-3</v>
+      </c>
+      <c r="C285">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B286">
+        <v>7.01904296875E-3</v>
+      </c>
+      <c r="C286">
+        <v>8588</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B287">
+        <v>6.5174102783203099E-3</v>
+      </c>
+      <c r="C287">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B288">
+        <v>7.0188045501708898E-3</v>
+      </c>
+      <c r="C288">
+        <v>5651</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B289">
+        <v>8.0208778381347604E-3</v>
+      </c>
+      <c r="C289">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B290">
+        <v>8.5227489471435495E-3</v>
+      </c>
+      <c r="C290">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B291">
+        <v>8.5215568542480399E-3</v>
+      </c>
+      <c r="C291">
+        <v>4929</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B292">
+        <v>6.5176486968994097E-3</v>
+      </c>
+      <c r="C292">
+        <v>10334</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B293">
+        <v>6.5169334411620998E-3</v>
+      </c>
+      <c r="C293">
+        <v>5078</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B294">
+        <v>9.0243816375732405E-3</v>
+      </c>
+      <c r="C294">
+        <v>9171</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B295">
+        <v>8.5227489471435495E-3</v>
+      </c>
+      <c r="C295">
+        <v>5648</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B296">
+        <v>6.5209865570068299E-3</v>
+      </c>
+      <c r="C296">
+        <v>4652</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B297">
+        <v>8.5229873657226493E-3</v>
+      </c>
+      <c r="C297">
+        <v>4957</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B298">
+        <v>7.0180892944335903E-3</v>
+      </c>
+      <c r="C298">
+        <v>4992</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B299">
+        <v>6.9999694824218698E-3</v>
+      </c>
+      <c r="C299">
+        <v>6953</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B300">
+        <v>8.0215930938720703E-3</v>
+      </c>
+      <c r="C300">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B301">
+        <v>8.5322856903076102E-3</v>
+      </c>
+      <c r="C301">
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B302">
+        <v>5.0115585327148405E-4</v>
+      </c>
+      <c r="C302">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B303">
+        <v>1.0023117065429601E-3</v>
+      </c>
+      <c r="C303">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B304">
+        <v>5.0091743469238205E-4</v>
+      </c>
+      <c r="C304">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B305">
+        <v>5.0115585327148405E-4</v>
+      </c>
+      <c r="C305">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B306">
+        <v>5.0115585327148405E-4</v>
+      </c>
+      <c r="C306">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B307">
+        <v>5.0139427185058496E-4</v>
+      </c>
+      <c r="C307">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B308">
+        <v>5.0115585327148405E-4</v>
+      </c>
+      <c r="C308">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B309">
+        <v>5.0115585327148405E-4</v>
+      </c>
+      <c r="C309">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B310">
+        <v>5.0115585327148405E-4</v>
+      </c>
+      <c r="C310">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B311">
+        <v>5.0091743469238205E-4</v>
+      </c>
+      <c r="C311">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B312">
+        <v>1.00183486938476E-3</v>
+      </c>
+      <c r="C312">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B313">
+        <v>1.02066993713378E-3</v>
+      </c>
+      <c r="C313">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B314">
+        <v>4.92095947265625E-4</v>
+      </c>
+      <c r="C314">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B315">
+        <v>5.0139427185058496E-4</v>
+      </c>
+      <c r="C315">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B316">
+        <v>5.0091743469238205E-4</v>
+      </c>
+      <c r="C316">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B317">
+        <v>5.0139427185058496E-4</v>
+      </c>
+      <c r="C317">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B318">
+        <v>5.0091743469238205E-4</v>
+      </c>
+      <c r="C318">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B319">
+        <v>5.0163269042968696E-4</v>
+      </c>
+      <c r="C319">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B320">
+        <v>5.0115585327148405E-4</v>
+      </c>
+      <c r="C320">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B321">
+        <v>1.01447105407714E-3</v>
+      </c>
+      <c r="C321">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B322">
+        <v>5.0115585327148405E-4</v>
+      </c>
+      <c r="C322">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B323">
+        <v>5.0163269042968696E-4</v>
+      </c>
+      <c r="C323">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B324">
+        <v>5.0163269042968696E-4</v>
+      </c>
+      <c r="C324">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B325">
+        <v>1.0025501251220701E-3</v>
+      </c>
+      <c r="C325">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B326">
+        <v>1.0037422180175701E-3</v>
+      </c>
+      <c r="C326">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B327">
+        <v>4.8613548278808502E-4</v>
+      </c>
+      <c r="C327">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B328">
+        <v>5.0091743469238205E-4</v>
+      </c>
+      <c r="C328">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B329">
+        <v>5.0091743469238205E-4</v>
+      </c>
+      <c r="C329">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B330">
+        <v>5.0187110900878895E-4</v>
+      </c>
+      <c r="C330">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B331">
+        <v>5.0139427185058496E-4</v>
+      </c>
+      <c r="C331">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B332">
+        <v>5.0115585327148405E-4</v>
+      </c>
+      <c r="C332">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B333">
+        <v>5.0139427185058496E-4</v>
+      </c>
+      <c r="C333">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B334">
+        <v>5.0091743469238205E-4</v>
+      </c>
+      <c r="C334">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B335">
+        <v>5.0115585327148405E-4</v>
+      </c>
+      <c r="C335">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B336">
+        <v>5.0091743469238205E-4</v>
+      </c>
+      <c r="C336">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B337">
+        <v>1.0025501251220701E-3</v>
+      </c>
+      <c r="C337">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B338">
+        <v>1.01733207702636E-3</v>
+      </c>
+      <c r="C338">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B339">
+        <v>1.0061264038085901E-3</v>
+      </c>
+      <c r="C339">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B340">
+        <v>1.0011196136474601E-3</v>
+      </c>
+      <c r="C340">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B341">
+        <v>5.0067901611328103E-4</v>
+      </c>
+      <c r="C341">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B342">
+        <v>5.0067901611328103E-4</v>
+      </c>
+      <c r="C342">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B343">
+        <v>1.00207328796386E-3</v>
+      </c>
+      <c r="C343">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B344">
+        <v>5.0115585327148405E-4</v>
+      </c>
+      <c r="C344">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B345">
+        <v>5.0115585327148405E-4</v>
+      </c>
+      <c r="C345">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B346">
+        <v>5.0115585327148405E-4</v>
+      </c>
+      <c r="C346">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B347">
+        <v>5.0115585327148405E-4</v>
+      </c>
+      <c r="C347">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B348">
+        <v>5.0115585327148405E-4</v>
+      </c>
+      <c r="C348">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B349">
+        <v>5.0091743469238205E-4</v>
+      </c>
+      <c r="C349">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B350">
+        <v>5.0091743469238205E-4</v>
+      </c>
+      <c r="C350">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B351">
+        <v>1.0023117065429601E-3</v>
+      </c>
+      <c r="C351">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B352">
+        <v>5.03301620483398E-4</v>
+      </c>
+      <c r="C352">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B353">
+        <v>9.8419189453125E-4</v>
+      </c>
+      <c r="C353">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B354">
+        <v>1.0037422180175701E-3</v>
+      </c>
+      <c r="C354">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B355">
+        <v>5.0091743469238205E-4</v>
+      </c>
+      <c r="C355">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B356">
+        <v>5.0115585327148405E-4</v>
+      </c>
+      <c r="C356">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B357">
+        <v>1.00207328796386E-3</v>
+      </c>
+      <c r="C357">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B358">
+        <v>5.0139427185058496E-4</v>
+      </c>
+      <c r="C358">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B359">
+        <v>5.0115585327148405E-4</v>
+      </c>
+      <c r="C359">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B360">
+        <v>5.0091743469238205E-4</v>
+      </c>
+      <c r="C360">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B361">
+        <v>5.0067901611328103E-4</v>
+      </c>
+      <c r="C361">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B362">
+        <v>5.0091743469238205E-4</v>
+      </c>
+      <c r="C362">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B363">
+        <v>5.0091743469238205E-4</v>
+      </c>
+      <c r="C363">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B364">
+        <v>4.8756599426269499E-4</v>
+      </c>
+      <c r="C364">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B365">
+        <v>4.8947334289550705E-4</v>
+      </c>
+      <c r="C365">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B366">
+        <v>5.0115585327148405E-4</v>
+      </c>
+      <c r="C366">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B367">
+        <v>1.0023117065429601E-3</v>
+      </c>
+      <c r="C367">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B368">
+        <v>5.0091743469238205E-4</v>
+      </c>
+      <c r="C368">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B369">
+        <v>5.0115585327148405E-4</v>
+      </c>
+      <c r="C369">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B370">
+        <v>5.0115585327148405E-4</v>
+      </c>
+      <c r="C370">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B371">
+        <v>1.0023117065429601E-3</v>
+      </c>
+      <c r="C371">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B372">
+        <v>5.0139427185058496E-4</v>
+      </c>
+      <c r="C372">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B373">
+        <v>5.0139427185058496E-4</v>
+      </c>
+      <c r="C373">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B374">
+        <v>5.0067901611328103E-4</v>
+      </c>
+      <c r="C374">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B375">
+        <v>1.0025501251220701E-3</v>
+      </c>
+      <c r="C375">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B376">
+        <v>5.0091743469238205E-4</v>
+      </c>
+      <c r="C376">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B377">
+        <v>1.0035037994384701E-3</v>
+      </c>
+      <c r="C377">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B378">
+        <v>1.0080337524414E-3</v>
+      </c>
+      <c r="C378">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B379">
+        <v>5.0115585327148405E-4</v>
+      </c>
+      <c r="C379">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B380">
+        <v>1.0008811950683501E-3</v>
+      </c>
+      <c r="C380">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B381">
+        <v>5.0067901611328103E-4</v>
+      </c>
+      <c r="C381">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B382">
+        <v>5.0115585327148405E-4</v>
+      </c>
+      <c r="C382">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B383">
+        <v>5.0139427185058496E-4</v>
+      </c>
+      <c r="C383">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B384">
+        <v>1.0025501251220701E-3</v>
+      </c>
+      <c r="C384">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B385">
+        <v>5.0163269042968696E-4</v>
+      </c>
+      <c r="C385">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B386">
+        <v>5.0115585327148405E-4</v>
+      </c>
+      <c r="C386">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B387">
+        <v>5.0139427185058496E-4</v>
+      </c>
+      <c r="C387">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B388">
+        <v>5.0163269042968696E-4</v>
+      </c>
+      <c r="C388">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B389">
+        <v>5.0091743469238205E-4</v>
+      </c>
+      <c r="C389">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B390">
+        <v>9.8633766174316406E-4</v>
+      </c>
+      <c r="C390">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B391">
+        <v>5.0163269042968696E-4</v>
+      </c>
+      <c r="C391">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B392">
+        <v>5.0139427185058496E-4</v>
+      </c>
+      <c r="C392">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B393">
+        <v>5.0115585327148405E-4</v>
+      </c>
+      <c r="C393">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B394">
+        <v>4.99486923217773E-4</v>
+      </c>
+      <c r="C394">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B395">
+        <v>5.0044059753417904E-4</v>
+      </c>
+      <c r="C395">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B396">
+        <v>5.0163269042968696E-4</v>
+      </c>
+      <c r="C396">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B397">
+        <v>5.0091743469238205E-4</v>
+      </c>
+      <c r="C397">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B398">
+        <v>5.0139427185058496E-4</v>
+      </c>
+      <c r="C398">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B399">
+        <v>5.0091743469238205E-4</v>
+      </c>
+      <c r="C399">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B400">
+        <v>5.0115585327148405E-4</v>
+      </c>
+      <c r="C400">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B401">
+        <v>5.0091743469238205E-4</v>
+      </c>
+      <c r="C401">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B402">
+        <v>1.86110186576843</v>
+      </c>
+      <c r="C402">
+        <v>477575</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B403">
+        <v>1.88362741470336</v>
+      </c>
+      <c r="C403">
+        <v>462275</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B404">
+        <v>1.86384654045104</v>
+      </c>
+      <c r="C404">
+        <v>458903</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B405">
+        <v>1.87656426429748</v>
+      </c>
+      <c r="C405">
+        <v>714697</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B406">
+        <v>1.8721232414245601</v>
+      </c>
+      <c r="C406">
+        <v>581634</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B407">
+        <v>1.8715620040893499</v>
+      </c>
+      <c r="C407">
+        <v>242081</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B408">
+        <v>1.8663845062255799</v>
+      </c>
+      <c r="C408">
+        <v>417703</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B409">
+        <v>1.86259794235229</v>
+      </c>
+      <c r="C409">
+        <v>529407</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B410">
+        <v>1.8662145137786801</v>
+      </c>
+      <c r="C410">
+        <v>228397</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B411">
+        <v>1.8614540100097601</v>
+      </c>
+      <c r="C411">
+        <v>580122</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B412">
+        <v>1.87812495231628</v>
+      </c>
+      <c r="C412">
+        <v>368016</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B413">
+        <v>1.85911536216735</v>
+      </c>
+      <c r="C413">
+        <v>512615</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B414">
+        <v>1.8730721473693801</v>
+      </c>
+      <c r="C414">
+        <v>459829</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B415">
+        <v>1.85773849487304</v>
+      </c>
+      <c r="C415">
+        <v>322946</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B416">
+        <v>1.8807501792907699</v>
+      </c>
+      <c r="C416">
+        <v>490109</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B417">
+        <v>1.8626356124877901</v>
+      </c>
+      <c r="C417">
+        <v>431109</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B418">
+        <v>1.87908411026</v>
+      </c>
+      <c r="C418">
+        <v>427243</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B419">
+        <v>1.8731319904327299</v>
+      </c>
+      <c r="C419">
+        <v>141683</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B420">
+        <v>1.8615863323211601</v>
+      </c>
+      <c r="C420">
+        <v>662021</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B421">
+        <v>1.86599445343017</v>
+      </c>
+      <c r="C421">
+        <v>349148</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B422">
+        <v>1.8531410694122299</v>
+      </c>
+      <c r="C422">
+        <v>253640</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B423">
+        <v>1.88066601753234</v>
+      </c>
+      <c r="C423">
+        <v>167428</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B424">
+        <v>1.86097431182861</v>
+      </c>
+      <c r="C424">
+        <v>251502</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B425">
+        <v>1.8709468841552701</v>
+      </c>
+      <c r="C425">
+        <v>377079</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B426">
+        <v>1.8721075057983301</v>
+      </c>
+      <c r="C426">
+        <v>388378</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B427">
+        <v>1.8645381927490201</v>
+      </c>
+      <c r="C427">
+        <v>485786</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B428">
+        <v>1.85296058654785</v>
+      </c>
+      <c r="C428">
+        <v>394327</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B429">
+        <v>1.8624584674835201</v>
+      </c>
+      <c r="C429">
+        <v>273081</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B430">
+        <v>1.8771893978118801</v>
+      </c>
+      <c r="C430">
+        <v>248649</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B431">
+        <v>1.87834644317626</v>
+      </c>
+      <c r="C431">
+        <v>438189</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B432">
+        <v>1.88210129737854</v>
+      </c>
+      <c r="C432">
+        <v>237848</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B433">
+        <v>1.8649697303771899</v>
+      </c>
+      <c r="C433">
+        <v>259709</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B434">
+        <v>1.8782656192779501</v>
+      </c>
+      <c r="C434">
+        <v>236144</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B435">
+        <v>1.8540902137756301</v>
+      </c>
+      <c r="C435">
+        <v>402979</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B436">
+        <v>1.8754756450653001</v>
+      </c>
+      <c r="C436">
+        <v>493405</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B437">
+        <v>1.85601925849914</v>
+      </c>
+      <c r="C437">
+        <v>270582</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B438">
+        <v>1.87298130989074</v>
+      </c>
+      <c r="C438">
+        <v>667142</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B439">
+        <v>1.8739881515502901</v>
+      </c>
+      <c r="C439">
+        <v>510307</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B440">
+        <v>1.85814213752746</v>
+      </c>
+      <c r="C440">
+        <v>372952</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B441">
+        <v>1.8660538196563701</v>
+      </c>
+      <c r="C441">
+        <v>425298</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B442">
+        <v>1.85514116287231</v>
+      </c>
+      <c r="C442">
+        <v>390698</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B443">
+        <v>1.86714792251586</v>
+      </c>
+      <c r="C443">
+        <v>259214</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B444">
+        <v>1.8694384098052901</v>
+      </c>
+      <c r="C444">
+        <v>406302</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B445">
+        <v>1.88565897941589</v>
+      </c>
+      <c r="C445">
+        <v>373599</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B446">
+        <v>1.8556604385375901</v>
+      </c>
+      <c r="C446">
+        <v>375410</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B447">
+        <v>1.86487913131713</v>
+      </c>
+      <c r="C447">
+        <v>512559</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B448">
+        <v>1.99584364891052</v>
+      </c>
+      <c r="C448">
+        <v>678134</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B449">
+        <v>1.8645555973052901</v>
+      </c>
+      <c r="C449">
+        <v>389826</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B450">
+        <v>1.8765735626220701</v>
+      </c>
+      <c r="C450">
+        <v>474785</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B451">
+        <v>1.90505146980285</v>
+      </c>
+      <c r="C451">
+        <v>505274</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B452">
+        <v>1.91316890716552</v>
+      </c>
+      <c r="C452">
+        <v>417932</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B453">
+        <v>2.2260787487029998</v>
+      </c>
+      <c r="C453">
+        <v>450186</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B454">
+        <v>2.0036592483520499</v>
+      </c>
+      <c r="C454">
+        <v>317046</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B455">
+        <v>1.90015864372253</v>
+      </c>
+      <c r="C455">
+        <v>299749</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B456">
+        <v>1.8564918041229199</v>
+      </c>
+      <c r="C456">
+        <v>511218</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B457">
+        <v>1.8757674694061199</v>
+      </c>
+      <c r="C457">
+        <v>469720</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B458">
+        <v>2.05079913139343</v>
+      </c>
+      <c r="C458">
+        <v>351306</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B459">
+        <v>1.9369373321533201</v>
+      </c>
+      <c r="C459">
+        <v>804062</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B460">
+        <v>1.84412717819213</v>
+      </c>
+      <c r="C460">
+        <v>485834</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B461">
+        <v>1.8587284088134699</v>
+      </c>
+      <c r="C461">
+        <v>817825</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B462">
+        <v>1.84541034698486</v>
+      </c>
+      <c r="C462">
+        <v>457372</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B463">
+        <v>1.83506679534912</v>
+      </c>
+      <c r="C463">
+        <v>470850</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B464">
+        <v>1.88158202171325</v>
+      </c>
+      <c r="C464">
+        <v>435482</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B465">
+        <v>1.8451232910156199</v>
+      </c>
+      <c r="C465">
+        <v>438129</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B466">
+        <v>1.86584377288818</v>
+      </c>
+      <c r="C466">
+        <v>504035</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B467">
+        <v>1.8362071514129601</v>
+      </c>
+      <c r="C467">
+        <v>563019</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B468">
+        <v>1.87343645095825</v>
+      </c>
+      <c r="C468">
+        <v>406535</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B469">
+        <v>1.8382587432861299</v>
+      </c>
+      <c r="C469">
+        <v>396503</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B470">
+        <v>1.8732283115386901</v>
+      </c>
+      <c r="C470">
+        <v>596445</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B471">
+        <v>1.8486258983612001</v>
+      </c>
+      <c r="C471">
+        <v>532609</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B472">
+        <v>1.86894130706787</v>
+      </c>
+      <c r="C472">
+        <v>192188</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B473">
+        <v>1.84252905845642</v>
+      </c>
+      <c r="C473">
+        <v>473945</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B474">
+        <v>1.8498291969299301</v>
+      </c>
+      <c r="C474">
+        <v>495657</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B475">
+        <v>1.8595170974731401</v>
+      </c>
+      <c r="C475">
+        <v>323114</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B476">
+        <v>1.8507113456726001</v>
+      </c>
+      <c r="C476">
+        <v>436932</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B477">
+        <v>1.9032630920410101</v>
+      </c>
+      <c r="C477">
+        <v>322117</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B478">
+        <v>1.8556172847747801</v>
+      </c>
+      <c r="C478">
+        <v>456583</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B479">
+        <v>1.8680613040923999</v>
+      </c>
+      <c r="C479">
+        <v>415338</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B480">
+        <v>1.8411273956298799</v>
+      </c>
+      <c r="C480">
+        <v>389919</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B481">
+        <v>1.8440191745757999</v>
+      </c>
+      <c r="C481">
+        <v>486800</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B482">
+        <v>1.88426160812377</v>
+      </c>
+      <c r="C482">
+        <v>395553</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B483">
+        <v>1.8396072387695299</v>
+      </c>
+      <c r="C483">
+        <v>195694</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B484">
+        <v>1.8710019588470399</v>
+      </c>
+      <c r="C484">
+        <v>156544</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B485">
+        <v>1.8379163742065401</v>
+      </c>
+      <c r="C485">
+        <v>247062</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B486">
+        <v>1.8756451606750399</v>
+      </c>
+      <c r="C486">
+        <v>359029</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B487">
+        <v>1.8584914207458401</v>
+      </c>
+      <c r="C487">
+        <v>547890</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B488">
+        <v>1.84113121032714</v>
+      </c>
+      <c r="C488">
+        <v>323493</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B489">
+        <v>1.88475942611694</v>
+      </c>
+      <c r="C489">
+        <v>541088</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B490">
+        <v>1.8460166454315099</v>
+      </c>
+      <c r="C490">
+        <v>489295</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B491">
+        <v>1.8525860309600799</v>
+      </c>
+      <c r="C491">
+        <v>273372</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B492">
+        <v>1.85392665863037</v>
+      </c>
+      <c r="C492">
+        <v>310980</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B493">
+        <v>1.9317708015441799</v>
+      </c>
+      <c r="C493">
+        <v>333548</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B494">
+        <v>2.0693182945251398</v>
+      </c>
+      <c r="C494">
+        <v>416162</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B495">
+        <v>1.8178400993347099</v>
+      </c>
+      <c r="C495">
+        <v>373100</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B496">
+        <v>2.1056323051452601</v>
+      </c>
+      <c r="C496">
+        <v>652629</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B497">
+        <v>1.7503478527069001</v>
+      </c>
+      <c r="C497">
+        <v>324370</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B498">
+        <v>1.9638636112213099</v>
+      </c>
+      <c r="C498">
+        <v>292534</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B499">
+        <v>1.82045173645019</v>
+      </c>
+      <c r="C499">
+        <v>453931</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B500">
+        <v>1.7968213558196999</v>
+      </c>
+      <c r="C500">
+        <v>392402</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B501">
+        <v>1.74664783477783</v>
+      </c>
+      <c r="C501">
+        <v>233783</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B502">
+        <v>4.4620513916015597E-2</v>
+      </c>
+      <c r="C502">
+        <v>34284</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B503">
+        <v>4.51202392578125E-2</v>
+      </c>
+      <c r="C503">
+        <v>27668</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B504">
+        <v>4.5119762420654297E-2</v>
+      </c>
+      <c r="C504">
+        <v>37747</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B505">
+        <v>4.41174507141113E-2</v>
+      </c>
+      <c r="C505">
+        <v>32928</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B506">
+        <v>4.3114900588989202E-2</v>
+      </c>
+      <c r="C506">
+        <v>20887</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B507">
+        <v>4.5152425765991197E-2</v>
+      </c>
+      <c r="C507">
+        <v>23911</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B508">
+        <v>4.3615818023681599E-2</v>
+      </c>
+      <c r="C508">
+        <v>28268</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B509">
+        <v>4.3615818023681599E-2</v>
+      </c>
+      <c r="C509">
+        <v>30792</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B510">
+        <v>5.6693553924560498E-2</v>
+      </c>
+      <c r="C510">
+        <v>23979</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B511">
+        <v>5.9157848358154297E-2</v>
+      </c>
+      <c r="C511">
+        <v>25065</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B512">
+        <v>6.3166618347167899E-2</v>
+      </c>
+      <c r="C512">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B513">
+        <v>5.1637649536132799E-2</v>
+      </c>
+      <c r="C513">
+        <v>20753</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B514">
+        <v>4.8629522323608398E-2</v>
+      </c>
+      <c r="C514">
+        <v>13364</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B515">
+        <v>4.9632310867309501E-2</v>
+      </c>
+      <c r="C515">
+        <v>19104</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B516">
+        <v>4.8629522323608398E-2</v>
+      </c>
+      <c r="C516">
+        <v>24815</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B517">
+        <v>4.7124862670898403E-2</v>
+      </c>
+      <c r="C517">
+        <v>23569</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B518">
+        <v>4.7627210617065402E-2</v>
+      </c>
+      <c r="C518">
+        <v>40610</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B519">
+        <v>4.81283664703369E-2</v>
+      </c>
+      <c r="C519">
+        <v>25241</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B520">
+        <v>4.56211566925048E-2</v>
+      </c>
+      <c r="C520">
+        <v>33858</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B521">
+        <v>4.4117212295532199E-2</v>
+      </c>
+      <c r="C521">
+        <v>15031</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B522">
+        <v>4.4117212295532199E-2</v>
+      </c>
+      <c r="C522">
+        <v>53988</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B523">
+        <v>4.3616294860839802E-2</v>
+      </c>
+      <c r="C523">
+        <v>50083</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B524">
+        <v>4.51202392578125E-2</v>
+      </c>
+      <c r="C524">
+        <v>30401</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B525">
+        <v>4.3615818023681599E-2</v>
+      </c>
+      <c r="C525">
+        <v>65634</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B526">
+        <v>4.3615818023681599E-2</v>
+      </c>
+      <c r="C526">
+        <v>43412</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B527">
+        <v>4.46188449859619E-2</v>
+      </c>
+      <c r="C527">
+        <v>46278</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B528">
+        <v>4.8128604888916002E-2</v>
+      </c>
+      <c r="C528">
+        <v>33633</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B529">
+        <v>4.56070899963378E-2</v>
+      </c>
+      <c r="C529">
+        <v>42876</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B530">
+        <v>4.41117286682128E-2</v>
+      </c>
+      <c r="C530">
+        <v>37810</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B531">
+        <v>4.41174507141113E-2</v>
+      </c>
+      <c r="C531">
+        <v>38175</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B532">
+        <v>4.3616294860839802E-2</v>
+      </c>
+      <c r="C532">
+        <v>21980</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B533">
+        <v>4.8117399215698201E-2</v>
+      </c>
+      <c r="C533">
+        <v>23575</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B534">
+        <v>4.6624660491943297E-2</v>
+      </c>
+      <c r="C534">
+        <v>31914</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B535">
+        <v>4.51202392578125E-2</v>
+      </c>
+      <c r="C535">
+        <v>33140</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B536">
+        <v>4.8629522323608398E-2</v>
+      </c>
+      <c r="C536">
+        <v>47213</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B537">
+        <v>4.8127889633178697E-2</v>
+      </c>
+      <c r="C537">
+        <v>54518</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B538">
+        <v>4.6624183654785101E-2</v>
+      </c>
+      <c r="C538">
+        <v>71122</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B539">
+        <v>4.5621633529663003E-2</v>
+      </c>
+      <c r="C539">
+        <v>50180</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B540">
+        <v>4.7125816345214802E-2</v>
+      </c>
+      <c r="C540">
+        <v>6513</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B541">
+        <v>4.9634456634521401E-2</v>
+      </c>
+      <c r="C541">
+        <v>53314</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B542">
+        <v>4.76269721984863E-2</v>
+      </c>
+      <c r="C542">
+        <v>23209</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B543">
+        <v>4.76269721984863E-2</v>
+      </c>
+      <c r="C543">
+        <v>18762</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B544">
+        <v>4.76269721984863E-2</v>
+      </c>
+      <c r="C544">
+        <v>17040</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B545">
+        <v>4.5120000839233398E-2</v>
+      </c>
+      <c r="C545">
+        <v>25610</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B546">
+        <v>4.8128128051757799E-2</v>
+      </c>
+      <c r="C546">
+        <v>21823</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B547">
+        <v>4.7628402709960903E-2</v>
+      </c>
+      <c r="C547">
+        <v>16304</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B548">
+        <v>4.6122789382934501E-2</v>
+      </c>
+      <c r="C548">
+        <v>16916</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B549">
+        <v>4.51202392578125E-2</v>
+      </c>
+      <c r="C549">
+        <v>31644</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B550">
+        <v>4.3616294860839802E-2</v>
+      </c>
+      <c r="C550">
+        <v>21159</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B551">
+        <v>4.3114423751830999E-2</v>
+      </c>
+      <c r="C551">
+        <v>14571</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B552">
+        <v>4.9633741378784103E-2</v>
+      </c>
+      <c r="C552">
+        <v>32973</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B553">
+        <v>4.46188449859619E-2</v>
+      </c>
+      <c r="C553">
+        <v>71120</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B554">
+        <v>4.5621871948242097E-2</v>
+      </c>
+      <c r="C554">
+        <v>20594</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B555">
+        <v>4.6122789382934501E-2</v>
+      </c>
+      <c r="C555">
+        <v>20898</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B556">
+        <v>4.8629522323608398E-2</v>
+      </c>
+      <c r="C556">
+        <v>27348</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B557">
+        <v>4.6623945236205999E-2</v>
+      </c>
+      <c r="C557">
+        <v>34535</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B558">
+        <v>4.8629283905029297E-2</v>
+      </c>
+      <c r="C558">
+        <v>14784</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B559">
+        <v>4.5152187347412102E-2</v>
+      </c>
+      <c r="C559">
+        <v>49474</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B560">
+        <v>4.4625043869018499E-2</v>
+      </c>
+      <c r="C560">
+        <v>53338</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B561">
+        <v>4.5120954513549798E-2</v>
+      </c>
+      <c r="C561">
+        <v>12243</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B562">
+        <v>4.5118570327758699E-2</v>
+      </c>
+      <c r="C562">
+        <v>29103</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B563">
+        <v>4.4117212295532199E-2</v>
+      </c>
+      <c r="C563">
+        <v>29746</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B564">
+        <v>4.8630952835083001E-2</v>
+      </c>
+      <c r="C564">
+        <v>61922</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B565">
+        <v>4.3117046356201102E-2</v>
+      </c>
+      <c r="C565">
+        <v>35148</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B566">
+        <v>4.3623208999633699E-2</v>
+      </c>
+      <c r="C566">
+        <v>44059</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B567">
+        <v>4.5123815536499003E-2</v>
+      </c>
+      <c r="C567">
+        <v>53679</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B568">
+        <v>4.5624256134033203E-2</v>
+      </c>
+      <c r="C568">
+        <v>23288</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B569">
+        <v>4.86297607421875E-2</v>
+      </c>
+      <c r="C569">
+        <v>41667</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B570">
+        <v>4.86271381378173E-2</v>
+      </c>
+      <c r="C570">
+        <v>15145</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B571">
+        <v>4.8162221908569301E-2</v>
+      </c>
+      <c r="C571">
+        <v>26226</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B572">
+        <v>4.7099351882934501E-2</v>
+      </c>
+      <c r="C572">
+        <v>6544</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B573">
+        <v>4.66599464416503E-2</v>
+      </c>
+      <c r="C573">
+        <v>37761</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B574">
+        <v>4.7119140625E-2</v>
+      </c>
+      <c r="C574">
+        <v>9435</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B575">
+        <v>5.4700613021850503E-2</v>
+      </c>
+      <c r="C575">
+        <v>54629</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B576">
+        <v>4.7582626342773403E-2</v>
+      </c>
+      <c r="C576">
+        <v>44208</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B577">
+        <v>5.0669193267822203E-2</v>
+      </c>
+      <c r="C577">
+        <v>32367</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B578">
+        <v>4.7124147415161098E-2</v>
+      </c>
+      <c r="C578">
+        <v>18995</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B579">
+        <v>4.71928119659423E-2</v>
+      </c>
+      <c r="C579">
+        <v>30756</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B580">
+        <v>4.3610334396362298E-2</v>
+      </c>
+      <c r="C580">
+        <v>12950</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B581">
+        <v>4.4116973876953097E-2</v>
+      </c>
+      <c r="C581">
+        <v>40873</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B582">
+        <v>4.4116973876953097E-2</v>
+      </c>
+      <c r="C582">
+        <v>22436</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B583">
+        <v>4.4122219085693297E-2</v>
+      </c>
+      <c r="C583">
+        <v>13539</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B584">
+        <v>4.4618606567382799E-2</v>
+      </c>
+      <c r="C584">
+        <v>14049</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B585">
+        <v>5.0126075744628899E-2</v>
+      </c>
+      <c r="C585">
+        <v>11433</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B586">
+        <v>4.4117927551269497E-2</v>
+      </c>
+      <c r="C586">
+        <v>9337</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B587">
+        <v>4.3617725372314398E-2</v>
+      </c>
+      <c r="C587">
+        <v>35347</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B588">
+        <v>4.3613672256469699E-2</v>
+      </c>
+      <c r="C588">
+        <v>37422</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B589">
+        <v>4.461669921875E-2</v>
+      </c>
+      <c r="C589">
+        <v>21691</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B590">
+        <v>4.4618606567382799E-2</v>
+      </c>
+      <c r="C590">
+        <v>25247</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B591">
+        <v>4.3617963790893499E-2</v>
+      </c>
+      <c r="C591">
+        <v>22069</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B592">
+        <v>4.4115066528320299E-2</v>
+      </c>
+      <c r="C592">
+        <v>22685</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B593">
+        <v>5.71179389953613E-2</v>
+      </c>
+      <c r="C593">
+        <v>36661</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B594">
+        <v>5.7120800018310498E-2</v>
+      </c>
+      <c r="C594">
+        <v>38590</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B595">
+        <v>6.0661315917968701E-2</v>
+      </c>
+      <c r="C595">
+        <v>22804</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B596">
+        <v>5.3132772445678697E-2</v>
+      </c>
+      <c r="C596">
+        <v>65775</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B597">
+        <v>4.6624183654785101E-2</v>
+      </c>
+      <c r="C597">
+        <v>29838</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B598">
+        <v>4.6624660491943297E-2</v>
+      </c>
+      <c r="C598">
+        <v>16106</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B599">
+        <v>4.3616294860839802E-2</v>
+      </c>
+      <c r="C599">
+        <v>48891</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B600">
+        <v>4.3616294860839802E-2</v>
+      </c>
+      <c r="C600">
+        <v>40715</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B601">
+        <v>4.9130916595458901E-2</v>
+      </c>
+      <c r="C601">
+        <v>37614</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B602">
+        <v>3.5092830657958902E-3</v>
+      </c>
+      <c r="C602">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B603">
+        <v>3.0081272125244102E-3</v>
+      </c>
+      <c r="C603">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B604">
+        <v>3.0081272125244102E-3</v>
+      </c>
+      <c r="C604">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B605">
+        <v>3.5092830657958902E-3</v>
+      </c>
+      <c r="C605">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B606">
+        <v>3.0078887939453099E-3</v>
+      </c>
+      <c r="C606">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B607">
+        <v>3.5092830657958902E-3</v>
+      </c>
+      <c r="C607">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B608">
+        <v>3.0076503753662101E-3</v>
+      </c>
+      <c r="C608">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B609">
+        <v>3.0078887939453099E-3</v>
+      </c>
+      <c r="C609">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B610">
+        <v>3.0078887939453099E-3</v>
+      </c>
+      <c r="C610">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B611">
+        <v>3.0081272125244102E-3</v>
+      </c>
+      <c r="C611">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B612">
+        <v>3.5092830657958902E-3</v>
+      </c>
+      <c r="C612">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B613">
+        <v>3.5092830657958902E-3</v>
+      </c>
+      <c r="C613">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B614">
+        <v>3.0076503753662101E-3</v>
+      </c>
+      <c r="C614">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B615">
+        <v>3.0076503753662101E-3</v>
+      </c>
+      <c r="C615">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B616">
+        <v>3.5092830657958902E-3</v>
+      </c>
+      <c r="C616">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B617">
+        <v>5.0108432769775304E-3</v>
+      </c>
+      <c r="C617">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B618">
+        <v>4.51254844665527E-3</v>
+      </c>
+      <c r="C618">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B619">
+        <v>4.0087699890136701E-3</v>
+      </c>
+      <c r="C619">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B620">
+        <v>3.5090446472167899E-3</v>
+      </c>
+      <c r="C620">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B621">
+        <v>5.0134658813476502E-3</v>
+      </c>
+      <c r="C621">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B622">
+        <v>3.0078887939453099E-3</v>
+      </c>
+      <c r="C622">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B623">
+        <v>5.0187110900878898E-3</v>
+      </c>
+      <c r="C623">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B624">
+        <v>3.00836563110351E-3</v>
+      </c>
+      <c r="C624">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B625">
+        <v>4.51254844665527E-3</v>
+      </c>
+      <c r="C625">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B626">
+        <v>3.5092830657958902E-3</v>
+      </c>
+      <c r="C626">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B627">
+        <v>3.0081272125244102E-3</v>
+      </c>
+      <c r="C627">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B628">
+        <v>5.51366806030273E-3</v>
+      </c>
+      <c r="C628">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B629">
+        <v>3.00836563110351E-3</v>
+      </c>
+      <c r="C629">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B630">
+        <v>5.0134658813476502E-3</v>
+      </c>
+      <c r="C630">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B631">
+        <v>3.5097599029540998E-3</v>
+      </c>
+      <c r="C631">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B632">
+        <v>3.0081272125244102E-3</v>
+      </c>
+      <c r="C632">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B633">
+        <v>3.5076141357421801E-3</v>
+      </c>
+      <c r="C633">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B634">
+        <v>3.00836563110351E-3</v>
+      </c>
+      <c r="C634">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B635">
+        <v>5.51605224609375E-3</v>
+      </c>
+      <c r="C635">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B636">
+        <v>3.0078887939453099E-3</v>
+      </c>
+      <c r="C636">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B637">
+        <v>4.0132999420165998E-3</v>
+      </c>
+      <c r="C637">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B638">
+        <v>3.48424911499023E-3</v>
+      </c>
+      <c r="C638">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B639">
+        <v>3.0076503753662101E-3</v>
+      </c>
+      <c r="C639">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B640">
+        <v>4.0104389190673802E-3</v>
+      </c>
+      <c r="C640">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B641">
+        <v>3.00836563110351E-3</v>
+      </c>
+      <c r="C641">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B642">
+        <v>6.0160160064697196E-3</v>
+      </c>
+      <c r="C642">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B643">
+        <v>3.0081272125244102E-3</v>
+      </c>
+      <c r="C643">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B644">
+        <v>4.01067733764648E-3</v>
+      </c>
+      <c r="C644">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B645">
+        <v>3.0074119567870998E-3</v>
+      </c>
+      <c r="C645">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B646">
+        <v>3.0076503753662101E-3</v>
+      </c>
+      <c r="C646">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B647">
+        <v>5.51724433898925E-3</v>
+      </c>
+      <c r="C647">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B648">
+        <v>3.509521484375E-3</v>
+      </c>
+      <c r="C648">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B649">
+        <v>4.51254844665527E-3</v>
+      </c>
+      <c r="C649">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B650">
+        <v>3.5092830657958902E-3</v>
+      </c>
+      <c r="C650">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B651">
+        <v>3.0081272125244102E-3</v>
+      </c>
+      <c r="C651">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B652">
+        <v>4.0082931518554601E-3</v>
+      </c>
+      <c r="C652">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B653">
+        <v>3.0076503753662101E-3</v>
+      </c>
+      <c r="C653">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B654">
+        <v>4.5123100280761701E-3</v>
+      </c>
+      <c r="C654">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B655">
+        <v>3.5092830657958902E-3</v>
+      </c>
+      <c r="C655">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B656">
+        <v>3.5092830657958902E-3</v>
+      </c>
+      <c r="C656">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B657">
+        <v>3.5092830657958902E-3</v>
+      </c>
+      <c r="C657">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B658">
+        <v>3.00836563110351E-3</v>
+      </c>
+      <c r="C658">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B659">
+        <v>4.0197372436523403E-3</v>
+      </c>
+      <c r="C659">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B660">
+        <v>3.5085678100585898E-3</v>
+      </c>
+      <c r="C660">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B661">
+        <v>3.5111904144287101E-3</v>
+      </c>
+      <c r="C661">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B662">
+        <v>3.0078887939453099E-3</v>
+      </c>
+      <c r="C662">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B663">
+        <v>3.5092830657958902E-3</v>
+      </c>
+      <c r="C663">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B664">
+        <v>4.5123100280761701E-3</v>
+      </c>
+      <c r="C664">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B665">
+        <v>3.509521484375E-3</v>
+      </c>
+      <c r="C665">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B666">
+        <v>3.5161972045898398E-3</v>
+      </c>
+      <c r="C666">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B667">
+        <v>3.5092830657958902E-3</v>
+      </c>
+      <c r="C667">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B668">
+        <v>3.00836563110351E-3</v>
+      </c>
+      <c r="C668">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B669">
+        <v>3.0078887939453099E-3</v>
+      </c>
+      <c r="C669">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B670">
+        <v>3.5097599029540998E-3</v>
+      </c>
+      <c r="C670">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B671">
+        <v>3.00836563110351E-3</v>
+      </c>
+      <c r="C671">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B672">
+        <v>3.509521484375E-3</v>
+      </c>
+      <c r="C672">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B673">
+        <v>3.5090446472167899E-3</v>
+      </c>
+      <c r="C673">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B674">
+        <v>3.0081272125244102E-3</v>
+      </c>
+      <c r="C674">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B675">
+        <v>3.5090446472167899E-3</v>
+      </c>
+      <c r="C675">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B676">
+        <v>3.5092830657958902E-3</v>
+      </c>
+      <c r="C676">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B677">
+        <v>3.0217170715332001E-3</v>
+      </c>
+      <c r="C677">
+        <v>3678</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B678">
+        <v>3.0076503753662101E-3</v>
+      </c>
+      <c r="C678">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B679">
+        <v>3.0078887939453099E-3</v>
+      </c>
+      <c r="C679">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B680">
+        <v>3.509521484375E-3</v>
+      </c>
+      <c r="C680">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B681">
+        <v>3.5092830657958902E-3</v>
+      </c>
+      <c r="C681">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B682">
+        <v>3.0078887939453099E-3</v>
+      </c>
+      <c r="C682">
+        <v>3852</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B683">
+        <v>3.5090446472167899E-3</v>
+      </c>
+      <c r="C683">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B684">
+        <v>3.5092830657958902E-3</v>
+      </c>
+      <c r="C684">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B685">
+        <v>3.5090446472167899E-3</v>
+      </c>
+      <c r="C685">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B686">
+        <v>3.5090446472167899E-3</v>
+      </c>
+      <c r="C686">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B687">
+        <v>3.0076503753662101E-3</v>
+      </c>
+      <c r="C687">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B688">
+        <v>3.0076503753662101E-3</v>
+      </c>
+      <c r="C688">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B689">
+        <v>3.509521484375E-3</v>
+      </c>
+      <c r="C689">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B690">
+        <v>3.0076503753662101E-3</v>
+      </c>
+      <c r="C690">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B691">
+        <v>4.0104389190673802E-3</v>
+      </c>
+      <c r="C691">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B692">
+        <v>3.0078887939453099E-3</v>
+      </c>
+      <c r="C692">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B693">
+        <v>3.5092830657958902E-3</v>
+      </c>
+      <c r="C693">
+        <v>3526</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B694">
+        <v>4.5120716094970703E-3</v>
+      </c>
+      <c r="C694">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B695">
+        <v>3.5092830657958902E-3</v>
+      </c>
+      <c r="C695">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B696">
+        <v>3.0081272125244102E-3</v>
+      </c>
+      <c r="C696">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B697">
+        <v>3.5092830657958902E-3</v>
+      </c>
+      <c r="C697">
+        <v>3489</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B698">
+        <v>3.0076503753662101E-3</v>
+      </c>
+      <c r="C698">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B699">
+        <v>4.0109157562255799E-3</v>
+      </c>
+      <c r="C699">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B700">
+        <v>3.0081272125244102E-3</v>
+      </c>
+      <c r="C700">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>72</v>
+      </c>
+      <c r="B701">
+        <v>3.0081272125244102E-3</v>
+      </c>
+      <c r="C701">
+        <v>839</v>
       </c>
     </row>
   </sheetData>
@@ -7697,10 +11980,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D701"/>
+  <dimension ref="A1:H701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A504" workbookViewId="0">
-      <selection activeCell="E518" sqref="E483:E518"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7708,7 +11991,7 @@
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7718,8 +12001,11 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -7729,8 +12015,19 @@
       <c r="C2">
         <v>904963</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <f xml:space="preserve"> AVERAGE(B2:B101)*1000</f>
+        <v>954.48559999465806</v>
+      </c>
+      <c r="F2">
+        <f xml:space="preserve"> AVERAGE(C2:C101)</f>
+        <v>1019610.49</v>
+      </c>
+      <c r="H2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -7740,8 +12037,19 @@
       <c r="C3">
         <v>986485</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <f xml:space="preserve"> AVERAGE(B102:B201)*1000</f>
+        <v>97.589905261993252</v>
+      </c>
+      <c r="F3">
+        <f xml:space="preserve"> AVERAGE(C102:C201)</f>
+        <v>107452.47</v>
+      </c>
+      <c r="H3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7751,8 +12059,19 @@
       <c r="C4">
         <v>1418916</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <f xml:space="preserve"> AVERAGE(B202:B301)*1000</f>
+        <v>14.69050407409666</v>
+      </c>
+      <c r="F4">
+        <f xml:space="preserve"> AVERAGE(C202:C301)</f>
+        <v>8988.77</v>
+      </c>
+      <c r="H4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7762,8 +12081,19 @@
       <c r="C5">
         <v>841170</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <f xml:space="preserve"> AVERAGE(B302:B401)*1000</f>
+        <v>1.1527943611144982</v>
+      </c>
+      <c r="F5">
+        <f xml:space="preserve"> AVERAGE(C302:C401)</f>
+        <v>597.24</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -7773,8 +12103,19 @@
       <c r="C6">
         <v>733202</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <f xml:space="preserve"> AVERAGE(B402:B501)*1000</f>
+        <v>609.26126241683914</v>
+      </c>
+      <c r="F6">
+        <f xml:space="preserve"> AVERAGE(C402:C501)</f>
+        <v>562676.18999999994</v>
+      </c>
+      <c r="H6">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -7784,8 +12125,19 @@
       <c r="C7">
         <v>638203</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <f xml:space="preserve"> AVERAGE(B502:B601)*1000</f>
+        <v>59.944324493408182</v>
+      </c>
+      <c r="F7">
+        <f xml:space="preserve"> AVERAGE(C502:C601)</f>
+        <v>48520.84</v>
+      </c>
+      <c r="H7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -7795,8 +12147,19 @@
       <c r="C8">
         <v>1099225</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <f xml:space="preserve"> AVERAGE(B602:B701)*1000</f>
+        <v>11.172482967376695</v>
+      </c>
+      <c r="F8">
+        <f xml:space="preserve"> AVERAGE(C602:C701)</f>
+        <v>3453.2</v>
+      </c>
+      <c r="H8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -7807,7 +12170,7 @@
         <v>639891</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -7818,7 +12181,7 @@
         <v>1187247</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -7829,7 +12192,7 @@
         <v>776953</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -7840,7 +12203,7 @@
         <v>850806</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -7851,7 +12214,7 @@
         <v>966381</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -7862,7 +12225,7 @@
         <v>1008148</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -7873,7 +12236,7 @@
         <v>823326</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>

--- a/tp2/Book1.xlsx
+++ b/tp2/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="progDynamique" sheetId="1" r:id="rId1"/>
@@ -345,6 +345,2058 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vorace</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ratio</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11146566054243219"/>
+                  <c:y val="0.66885207057451157"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>glouton!$H$11:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>glouton!$E$11:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.61614751815795776</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5495209693908678</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6265144348144522</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.926593780517571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132.66009807586633</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1876.1242985725376</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6856.596691608428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-37E4-4DAC-9393-1C8842B34211}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="420734048"/>
+        <c:axId val="420734376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="420734048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420734376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="420734376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420734048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.7471566054243232E-2"/>
+          <c:y val="0.88946704578594338"/>
+          <c:w val="0.40950131233595799"/>
+          <c:h val="7.8125546806649182E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tabou</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ratio</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.3880139982502192E-2"/>
+                  <c:y val="0.4924303732866725"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:noFill/>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>tabou!$H$11:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>tabou!$E$11:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.1527943611144982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.172482967376695</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.69050407409666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.944324493408182</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.589905261993252</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>609.26126241683914</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>954.48559999465806</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A48-465A-85D9-37352A33C0E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="424483896"/>
+        <c:axId val="424477008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="424483896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424477008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="424477008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424483896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7C4B320-72B1-41DC-A9E6-BA7381972AAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E981D67B-9B13-4039-B6F8-2C75CF84FFA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4173,8 +6225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H701"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4382,6 +6434,15 @@
       <c r="C11">
         <v>811125</v>
       </c>
+      <c r="E11">
+        <v>0.61614751815795776</v>
+      </c>
+      <c r="F11">
+        <v>308.10000000000002</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -4393,6 +6454,15 @@
       <c r="C12">
         <v>499448</v>
       </c>
+      <c r="E12">
+        <v>3.5495209693908678</v>
+      </c>
+      <c r="F12">
+        <v>1942.18</v>
+      </c>
+      <c r="H12">
+        <v>500</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -4404,6 +6474,15 @@
       <c r="C13">
         <v>785868</v>
       </c>
+      <c r="E13">
+        <v>7.6265144348144522</v>
+      </c>
+      <c r="F13">
+        <v>4818.54</v>
+      </c>
+      <c r="H13">
+        <v>1000</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -4415,6 +6494,15 @@
       <c r="C14">
         <v>367818</v>
       </c>
+      <c r="E14">
+        <v>46.926593780517571</v>
+      </c>
+      <c r="F14">
+        <v>31070.94</v>
+      </c>
+      <c r="H14">
+        <v>5000</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -4426,6 +6514,15 @@
       <c r="C15">
         <v>741274</v>
       </c>
+      <c r="E15">
+        <v>132.66009807586633</v>
+      </c>
+      <c r="F15">
+        <v>68669.39</v>
+      </c>
+      <c r="H15">
+        <v>10000</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -4437,8 +6534,17 @@
       <c r="C16">
         <v>772600</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>1876.1242985725376</v>
+      </c>
+      <c r="F16">
+        <v>414086.48</v>
+      </c>
+      <c r="H16">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -4448,8 +6554,17 @@
       <c r="C17">
         <v>1015047</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>6856.596691608428</v>
+      </c>
+      <c r="F17">
+        <v>806549.07</v>
+      </c>
+      <c r="H17">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -4460,7 +6575,7 @@
         <v>661367</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -4471,7 +6586,7 @@
         <v>594240</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -4482,7 +6597,7 @@
         <v>579486</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -4493,7 +6608,7 @@
         <v>530662</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -4504,7 +6619,7 @@
         <v>320620</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -4515,7 +6630,7 @@
         <v>561166</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -4526,7 +6641,7 @@
         <v>1324457</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -4537,7 +6652,7 @@
         <v>335109</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -4548,7 +6663,7 @@
         <v>784502</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -4559,7 +6674,7 @@
         <v>921492</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -4570,7 +6685,7 @@
         <v>514847</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -4581,7 +6696,7 @@
         <v>527965</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -4592,7 +6707,7 @@
         <v>1002732</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -4603,7 +6718,7 @@
         <v>823450</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -11975,6 +14090,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11982,8 +14098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H701"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12191,6 +14307,15 @@
       <c r="C11">
         <v>776953</v>
       </c>
+      <c r="E11">
+        <v>1.1527943611144982</v>
+      </c>
+      <c r="F11">
+        <v>597.24</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -12202,6 +14327,15 @@
       <c r="C12">
         <v>850806</v>
       </c>
+      <c r="E12">
+        <v>11.172482967376695</v>
+      </c>
+      <c r="F12">
+        <v>3453.2</v>
+      </c>
+      <c r="H12">
+        <v>500</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -12213,6 +14347,15 @@
       <c r="C13">
         <v>966381</v>
       </c>
+      <c r="E13">
+        <v>14.69050407409666</v>
+      </c>
+      <c r="F13">
+        <v>8988.77</v>
+      </c>
+      <c r="H13">
+        <v>1000</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -12224,6 +14367,15 @@
       <c r="C14">
         <v>1008148</v>
       </c>
+      <c r="E14">
+        <v>59.944324493408182</v>
+      </c>
+      <c r="F14">
+        <v>48520.84</v>
+      </c>
+      <c r="H14">
+        <v>5000</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -12235,6 +14387,15 @@
       <c r="C15">
         <v>823326</v>
       </c>
+      <c r="E15">
+        <v>97.589905261993252</v>
+      </c>
+      <c r="F15">
+        <v>107452.47</v>
+      </c>
+      <c r="H15">
+        <v>10000</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -12246,8 +14407,17 @@
       <c r="C16">
         <v>1224145</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>609.26126241683914</v>
+      </c>
+      <c r="F16">
+        <v>562676.18999999994</v>
+      </c>
+      <c r="H16">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -12257,8 +14427,17 @@
       <c r="C17">
         <v>717191</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>954.48559999465806</v>
+      </c>
+      <c r="F17">
+        <v>1019610.49</v>
+      </c>
+      <c r="H17">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -12269,7 +14448,7 @@
         <v>857887</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -12280,7 +14459,7 @@
         <v>875119</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -12291,7 +14470,7 @@
         <v>1121295</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -12302,7 +14481,7 @@
         <v>1010737</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -12316,7 +14495,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -12327,7 +14506,7 @@
         <v>886205</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -12338,7 +14517,7 @@
         <v>1020523</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -12349,7 +14528,7 @@
         <v>758476</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -12360,7 +14539,7 @@
         <v>873710</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -12371,7 +14550,7 @@
         <v>813228</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -12382,7 +14561,7 @@
         <v>837148</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -12393,7 +14572,7 @@
         <v>1300567</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -12404,7 +14583,7 @@
         <v>1019627</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -12415,7 +14594,7 @@
         <v>1040867</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -19787,5 +21966,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>